--- a/output/3_Regression/analysis_01/h19/table_mape_h19.xlsx
+++ b/output/3_Regression/analysis_01/h19/table_mape_h19.xlsx
@@ -513,13 +513,13 @@
         <v>0.8186890796079163</v>
       </c>
       <c r="H2" t="n">
-        <v>2.107054542644494</v>
+        <v>3.681942662771483</v>
       </c>
       <c r="I2" t="n">
-        <v>2.319789922142824</v>
+        <v>1.180612485590931</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1146761908697862</v>
+        <v>2.276305551079551</v>
       </c>
       <c r="K2" t="n">
         <v>3.589568839493082</v>
@@ -548,13 +548,13 @@
         <v>0.9255228393902545</v>
       </c>
       <c r="H3" t="n">
-        <v>2.126880732035717</v>
+        <v>2.398200764326385</v>
       </c>
       <c r="I3" t="n">
-        <v>1.988979009864055</v>
+        <v>1.127230692008446</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6857086270667254</v>
+        <v>1.115943022661845</v>
       </c>
       <c r="K3" t="n">
         <v>2.205304125994156</v>
@@ -583,13 +583,13 @@
         <v>0.8878536439011284</v>
       </c>
       <c r="H4" t="n">
-        <v>1.590009338717742</v>
+        <v>2.174691166748271</v>
       </c>
       <c r="I4" t="n">
-        <v>1.471112663175803</v>
+        <v>1.258098694924476</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9149619283093293</v>
+        <v>0.8481151820253505</v>
       </c>
       <c r="K4" t="n">
         <v>1.78768278863825</v>
@@ -618,13 +618,13 @@
         <v>0.8727494780973916</v>
       </c>
       <c r="H5" t="n">
-        <v>1.361453595814651</v>
+        <v>1.944396239972237</v>
       </c>
       <c r="I5" t="n">
-        <v>1.227380475624025</v>
+        <v>1.184817119748834</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9004920294759936</v>
+        <v>0.7714271528167381</v>
       </c>
       <c r="K5" t="n">
         <v>1.668587766557852</v>
@@ -653,13 +653,13 @@
         <v>0.8566808011692569</v>
       </c>
       <c r="H6" t="n">
-        <v>1.223980959597503</v>
+        <v>1.712650586044672</v>
       </c>
       <c r="I6" t="n">
-        <v>1.084337569884652</v>
+        <v>1.192149669110835</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8171389115410997</v>
+        <v>0.737300121462146</v>
       </c>
       <c r="K6" t="n">
         <v>1.681476106635771</v>
@@ -688,13 +688,13 @@
         <v>0.8344173736836642</v>
       </c>
       <c r="H7" t="n">
-        <v>1.153453543597782</v>
+        <v>1.483001681263534</v>
       </c>
       <c r="I7" t="n">
-        <v>1.033732387541829</v>
+        <v>1.14500327845674</v>
       </c>
       <c r="J7" t="n">
-        <v>0.772490494386358</v>
+        <v>0.6660756996293868</v>
       </c>
       <c r="K7" t="n">
         <v>1.722835907528013</v>
@@ -723,13 +723,13 @@
         <v>0.8190647715206841</v>
       </c>
       <c r="H8" t="n">
-        <v>1.083480489485112</v>
+        <v>1.36998107876422</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9814477069955815</v>
+        <v>1.08214602951966</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6386377673584297</v>
+        <v>0.6159625801897923</v>
       </c>
       <c r="K8" t="n">
         <v>1.721975429777781</v>
@@ -758,13 +758,13 @@
         <v>0.8048213089738527</v>
       </c>
       <c r="H9" t="n">
-        <v>1.092827171466089</v>
+        <v>1.262706153843313</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9974197542027873</v>
+        <v>1.057667157306542</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5560956227162438</v>
+        <v>0.566378693957818</v>
       </c>
       <c r="K9" t="n">
         <v>1.684400016741159</v>
@@ -793,13 +793,13 @@
         <v>0.7886914854581671</v>
       </c>
       <c r="H10" t="n">
-        <v>1.010056076543835</v>
+        <v>1.166167052192382</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9619938156521654</v>
+        <v>1.006199362940188</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4812739464915546</v>
+        <v>0.5181397448051289</v>
       </c>
       <c r="K10" t="n">
         <v>1.628177642041536</v>
@@ -828,13 +828,13 @@
         <v>0.7742088048909785</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9627873112453568</v>
+        <v>1.173017182984364</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9471228413254381</v>
+        <v>1.002450100165211</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4300459345409982</v>
+        <v>0.4978676561776429</v>
       </c>
       <c r="K11" t="n">
         <v>1.556807989328715</v>
@@ -863,13 +863,13 @@
         <v>0.7610592468674335</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9291860214277887</v>
+        <v>1.195195846279443</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9233154783029015</v>
+        <v>1.002103765925558</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3761280182739345</v>
+        <v>0.4880516765850405</v>
       </c>
       <c r="K12" t="n">
         <v>1.507499722827129</v>
@@ -898,13 +898,13 @@
         <v>0.7482326256454266</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9081639253119573</v>
+        <v>1.215917632893859</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8832427489532213</v>
+        <v>0.9586816340727756</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3553887026588845</v>
+        <v>0.466804758049764</v>
       </c>
       <c r="K13" t="n">
         <v>1.459029844290591</v>
